--- a/concepts/draft/Hinweis rechner.xlsx
+++ b/concepts/draft/Hinweis rechner.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\___UnserSkribbleIO\GitHub\Unser-Skribbl\concepts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\___UnserSkribbleIO\GitHub\Unser-Skribbl\concepts\draft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A52B83-1075-4862-A702-A37C8505AFD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E90CEE-AB59-4899-AA50-7E7888A1FB73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1225,7 +1225,7 @@
   <dimension ref="B2:I70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1391,7 +1391,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="25">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D19" s="22">
         <f>IF($C$20&gt;0,0,1)</f>
@@ -1399,7 +1399,7 @@
       </c>
       <c r="E19" s="47">
         <f>$C$19-$C$20-($C$19/10*$D$19)</f>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="F19" s="48"/>
       <c r="G19" s="49"/>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="E21" s="34">
         <f>$E$19/$D$23</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F21" s="35"/>
       <c r="G21" s="36"/>
